--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>USDT</t>
   </si>
   <si>
-    <t>Fee_Asset</t>
-  </si>
-  <si>
     <t>Fee_Amount</t>
   </si>
   <si>
@@ -51,16 +48,19 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>Main_Asset</t>
-  </si>
-  <si>
     <t>Main_Amount</t>
   </si>
   <si>
-    <t>Sec_Asset</t>
-  </si>
-  <si>
     <t>Sec_Amount</t>
+  </si>
+  <si>
+    <t>Main_Token</t>
+  </si>
+  <si>
+    <t>Sec_Token</t>
+  </si>
+  <si>
+    <t>Fee_Token</t>
   </si>
 </sst>
 </file>
@@ -439,6 +439,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="16.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44932</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16900</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44934</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18400</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -459,22 +649,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -501,7 +691,7 @@
         <v>44932</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>16900</v>
@@ -526,7 +716,7 @@
         <v>44934</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>18400</v>
@@ -623,194 +813,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="9" width="16.109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>44932</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>16900</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>44934</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18400</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>